--- a/doc/log/log_201608040101_xumengqi.xlsx
+++ b/doc/log/log_201608040101_xumengqi.xlsx
@@ -409,7 +409,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
@@ -467,6 +467,11 @@
       </c>
       <c r="D3" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>43235</v>
       </c>
     </row>
   </sheetData>

--- a/doc/log/log_201608040101_xumengqi.xlsx
+++ b/doc/log/log_201608040101_xumengqi.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -80,6 +80,50 @@
   </si>
   <si>
     <t xml:space="preserve"> 基本实现，还未完成测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jinkens的安装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部分完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二天完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13：00-16：20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13：00-16：20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>question问题json解析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部分完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调试错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13：00-16：20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>question问题json解析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -409,10 +453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -471,7 +515,50 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>43235</v>
+        <v>43270</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>43271</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>43272</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/doc/log/log_201608040101_xumengqi.xlsx
+++ b/doc/log/log_201608040101_xumengqi.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -124,6 +124,101 @@
   </si>
   <si>
     <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13：00-16：21</t>
+  </si>
+  <si>
+    <t>13：00-16：22</t>
+  </si>
+  <si>
+    <t>13：00-16：23</t>
+  </si>
+  <si>
+    <t>13：00-16：24</t>
+  </si>
+  <si>
+    <t>13：00-16：25</t>
+  </si>
+  <si>
+    <t>安装Jira</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部分完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置管理员管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>写测试报告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部分完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目完成时测试报告写完</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库里面的js文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后续在更改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加类的关联</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改js文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更够呈现页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13：00-16：26</t>
+  </si>
+  <si>
+    <t>13：00-16：27</t>
+  </si>
+  <si>
+    <t>13：00-16：28</t>
+  </si>
+  <si>
+    <t>13：00-16：29</t>
+  </si>
+  <si>
+    <t>测试计划和报告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目还没有完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -453,10 +548,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -561,6 +656,120 @@
         <v>25</v>
       </c>
     </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>43273</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>76148</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>43277</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>43278</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>43279</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>43280</v>
+      </c>
+      <c r="B12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -572,7 +781,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>

--- a/doc/log/log_201608040101_xumengqi.xlsx
+++ b/doc/log/log_201608040101_xumengqi.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="65">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -201,9 +201,6 @@
     <t>13：00-16：26</t>
   </si>
   <si>
-    <t>13：00-16：27</t>
-  </si>
-  <si>
     <t>13：00-16：28</t>
   </si>
   <si>
@@ -219,6 +216,59 @@
   </si>
   <si>
     <t>项目还没有完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13：00-16：30</t>
+  </si>
+  <si>
+    <t>13：00-16：31</t>
+  </si>
+  <si>
+    <t>13：00-16：32</t>
+  </si>
+  <si>
+    <t>学习前端框架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改问题答案的前端页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续学习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阶段性的测试报告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后续完成整个项目的测试报告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看一些CSS,jsp语言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后续和前端框架结合在一起</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -548,10 +598,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -746,28 +796,94 @@
         <v>45</v>
       </c>
       <c r="C12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" t="s">
         <v>49</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>50</v>
       </c>
-      <c r="E12" t="s">
-        <v>51</v>
-      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>43283</v>
+      </c>
       <c r="B13" t="s">
         <v>46</v>
       </c>
+      <c r="C13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>43284</v>
+      </c>
       <c r="B14" t="s">
         <v>47</v>
       </c>
+      <c r="C14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>43285</v>
+      </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>51</v>
+      </c>
+      <c r="C15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>43286</v>
+      </c>
+      <c r="B16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>43287</v>
+      </c>
+      <c r="B17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>43288</v>
       </c>
     </row>
   </sheetData>
